--- a/spliced/struggle/2023-04-11_10-09-09/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-09-09/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.06989622116088862</v>
+        <v>-0.01545035839080799</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2621099762618542</v>
+        <v>0.2315296996384856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03679747134447098</v>
+        <v>-0.5798605158925052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1602854728698729</v>
+        <v>0.06989622116088862</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2304907962679849</v>
+        <v>-0.2621099762618542</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.932947013527152</v>
+        <v>0.03679747134447098</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.401312828063962</v>
+        <v>0.1602854728698729</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6429092288017235</v>
+        <v>0.2304907962679849</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.608263850212088</v>
+        <v>-0.932947013527152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.035469830036161</v>
+        <v>1.401312828063962</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.478700906038283</v>
+        <v>-0.6429092288017235</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.709699153900139</v>
+        <v>-4.608263850212088</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4589872062206247</v>
+        <v>2.035469830036161</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1242832839488965</v>
+        <v>-1.478700906038283</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.642685413360593</v>
+        <v>-5.709699153900139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.821219787001614</v>
+        <v>0.4589872062206247</v>
       </c>
       <c r="B7" t="n">
-        <v>1.541860699653622</v>
+        <v>-0.1242832839488965</v>
       </c>
       <c r="C7" t="n">
-        <v>1.125372886657715</v>
+        <v>-1.642685413360593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.537274837493896</v>
+        <v>-1.821219787001614</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.381650447845459</v>
+        <v>1.541860699653622</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8837652206420898</v>
+        <v>1.125372886657715</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.140988111495973</v>
+        <v>-4.537274837493896</v>
       </c>
       <c r="B9" t="n">
-        <v>2.625270426273349</v>
+        <v>-0.381650447845459</v>
       </c>
       <c r="C9" t="n">
-        <v>3.428681612014774</v>
+        <v>0.8837652206420898</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.243353843688965</v>
+        <v>-6.140988111495973</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4006794318556786</v>
+        <v>2.625270426273349</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.078256130218506</v>
+        <v>3.428681612014774</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.525731027126295</v>
+        <v>-6.243353843688965</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.101333875209092</v>
+        <v>0.4006794318556786</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.408103108406068</v>
+        <v>-2.078256130218506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.08496618270874</v>
+        <v>1.525731027126295</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.613636314868927</v>
+        <v>-1.101333875209092</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.943879842758179</v>
+        <v>-3.408103108406068</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.373238265514372</v>
+        <v>2.08496618270874</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1506620794534765</v>
+        <v>-1.613636314868927</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.15161240100861</v>
+        <v>-2.943879842758179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.501610040664678</v>
+        <v>-2.373238265514372</v>
       </c>
       <c r="B14" t="n">
-        <v>2.79044055938721</v>
+        <v>-0.1506620794534765</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.906912446022055</v>
+        <v>-2.15161240100861</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.058286607265482</v>
+        <v>-3.501610040664678</v>
       </c>
       <c r="B15" t="n">
-        <v>2.954759478569038</v>
+        <v>2.79044055938721</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.582780838012708</v>
+        <v>-2.906912446022055</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.394027709960937</v>
+        <v>-4.058286607265482</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.486701488494873</v>
+        <v>2.954759478569038</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1956815719604492</v>
+        <v>-7.582780838012708</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.034749180078514</v>
+        <v>2.394027709960937</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.211341693997383</v>
+        <v>-1.486701488494873</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.07141649723053026</v>
+        <v>0.1956815719604492</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-4.999244511127475</v>
+        <v>-2.034749180078514</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.394761115312575</v>
+        <v>-1.211341693997383</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1581084728240968</v>
+        <v>-0.07141649723053026</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-6.522920310497289</v>
+        <v>-4.999244511127475</v>
       </c>
       <c r="B19" t="n">
-        <v>0.375426143407825</v>
+        <v>-0.394761115312575</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1347707509994504</v>
+        <v>-0.1581084728240968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-6.107214450836182</v>
+        <v>-6.522920310497289</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1423146724700928</v>
+        <v>0.375426143407825</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9927992820739744</v>
+        <v>-0.1347707509994504</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-6.107214450836182</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1423146724700928</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9927992820739744</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>-4.145634770393367</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-0.62879066169262</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>1.90212270617485</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.618811368942268</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.6589505374431646</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2403407692909387</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.08240008354186718</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4783504903316493</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.809414207935333</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.95973014831543</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9762580394744872</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-4.069071769714356</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-3.901577949523926</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.771272063255311</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.484678864479062</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.957046031951897</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.6577051877975557</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-7.9572014808655</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0412573218345611</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-3.739429324865336</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.584903955459609</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-2.076164960861222</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.966795355081547</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.5832877159118695</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-5.426012933254244</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.3007338047027568</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.185311913490301</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-6.20224690437317</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8901370018720657</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.72858691215514</v>
       </c>
     </row>
   </sheetData>
